--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2766990.786507368</v>
+        <v>-2769916.590577302</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>182.5570120086798</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.396723986041539</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.4022924851448</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>29.00708539155832</v>
       </c>
       <c r="X4" t="n">
-        <v>29.00708539155848</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.67913628361567</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>72.36698404190665</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>100.0772551557912</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>191.269669440632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.6934725236132</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.63579206135134</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>266.0166039599398</v>
       </c>
       <c r="G8" t="n">
         <v>411.6292057806848</v>
@@ -1151,7 +1151,7 @@
         <v>301.8532452403286</v>
       </c>
       <c r="I8" t="n">
-        <v>68.85205737801303</v>
+        <v>68.85205737801311</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.3094651874605</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>144.7299531277247</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0517703690805</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>48.07345948951458</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1227,10 +1227,10 @@
         <v>135.378004405481</v>
       </c>
       <c r="H9" t="n">
-        <v>93.25272891842305</v>
+        <v>15.60549627287732</v>
       </c>
       <c r="I9" t="n">
-        <v>21.72437342958204</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>43.25019271364359</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>103.2014179394731</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>195.2995917530936</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9049045282173</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2291482726603</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>108.0938698205631</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,22 +2479,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002295</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261726</v>
@@ -2722,16 +2722,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308933</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541846</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808189</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
@@ -2770,16 +2770,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541835</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
         <v>56.9811888265258</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541837</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972048</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3670,13 +3670,13 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541836</v>
       </c>
       <c r="I40" t="n">
         <v>56.98118882652584</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541837</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652582</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823981</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659133</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659133</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="V2" t="n">
-        <v>210.8831693494284</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="W2" t="n">
-        <v>210.8831693494284</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="X2" t="n">
-        <v>210.8831693494284</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494284</v>
+        <v>199.4030692042953</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487952</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323103</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158254</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158254</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158254</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349385</v>
+        <v>100.3335179349382</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295953</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768597</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768597</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="T4" t="n">
-        <v>423.1417032603748</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="U4" t="n">
-        <v>233.7219182438899</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="V4" t="n">
-        <v>44.30213322740508</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="W4" t="n">
-        <v>44.30213322740508</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4565,10 +4565,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
@@ -4577,10 +4577,10 @@
         <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946892</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>646.859700735818</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V5" t="n">
-        <v>380.48204416864</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="W5" t="n">
-        <v>380.48204416864</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151036</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>122.1852469211217</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>122.1852469211217</v>
       </c>
       <c r="D6" t="n">
         <v>21.0971104001205</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374624</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742759</v>
+        <v>611.574711881066</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7089093706072</v>
+        <v>376.4226036493233</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>122.1852469211217</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>122.1852469211217</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.0971104001205</v>
+        <v>122.1852469211217</v>
       </c>
     </row>
     <row r="7">
@@ -4726,19 +4726,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,25 +4747,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>943.0439315983347</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>736.256897008846</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>736.256897008846</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>356.2217926073724</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>101.5373044014855</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y7" t="n">
         <v>21.0971104001205</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.404116293501</v>
+        <v>1466.465437574212</v>
       </c>
       <c r="C8" t="n">
-        <v>846.4415993530893</v>
+        <v>1466.465437574212</v>
       </c>
       <c r="D8" t="n">
-        <v>846.4415993530893</v>
+        <v>1108.199738967461</v>
       </c>
       <c r="E8" t="n">
-        <v>846.4415993530893</v>
+        <v>1108.199738967461</v>
       </c>
       <c r="F8" t="n">
         <v>839.4960986038858</v>
@@ -4799,55 +4799,55 @@
         <v>118.8067541382156</v>
       </c>
       <c r="I8" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="J8" t="n">
-        <v>178.6923258580614</v>
+        <v>178.6923258580604</v>
       </c>
       <c r="K8" t="n">
-        <v>423.4175155659445</v>
+        <v>423.4175155659433</v>
       </c>
       <c r="L8" t="n">
-        <v>763.9225153380708</v>
+        <v>763.9225153380689</v>
       </c>
       <c r="M8" t="n">
-        <v>1174.469373318188</v>
+        <v>1174.469373318186</v>
       </c>
       <c r="N8" t="n">
-        <v>1596.273117052783</v>
+        <v>1596.27311705278</v>
       </c>
       <c r="O8" t="n">
-        <v>1981.235170067937</v>
+        <v>1981.235170067934</v>
       </c>
       <c r="P8" t="n">
-        <v>2275.290375045547</v>
+        <v>2275.290375045543</v>
       </c>
       <c r="Q8" t="n">
-        <v>2447.940841157569</v>
+        <v>2447.940841157565</v>
       </c>
       <c r="R8" t="n">
-        <v>2462.961071657596</v>
+        <v>2462.961071657593</v>
       </c>
       <c r="S8" t="n">
-        <v>2336.385854296525</v>
+        <v>2462.961071657593</v>
       </c>
       <c r="T8" t="n">
-        <v>2190.193982450338</v>
+        <v>2462.961071657593</v>
       </c>
       <c r="U8" t="n">
-        <v>1936.606335612883</v>
+        <v>2209.373424820138</v>
       </c>
       <c r="V8" t="n">
-        <v>1605.543448269313</v>
+        <v>2209.373424820138</v>
       </c>
       <c r="W8" t="n">
-        <v>1605.543448269313</v>
+        <v>1856.604769550024</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.543448269313</v>
+        <v>1856.604769550024</v>
       </c>
       <c r="Y8" t="n">
-        <v>1215.404116293501</v>
+        <v>1466.465437574212</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>830.9272598979005</v>
+        <v>830.9272598978969</v>
       </c>
       <c r="C9" t="n">
-        <v>656.4742306167735</v>
+        <v>656.4742306167699</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9151806273649</v>
+        <v>507.5398209555186</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6777256219094</v>
+        <v>348.3023659500631</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1431676487944</v>
+        <v>201.7678079769481</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3977086533591</v>
+        <v>65.02234898151278</v>
       </c>
       <c r="H9" t="n">
-        <v>71.2030329781843</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="I9" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="J9" t="n">
-        <v>107.5308447661008</v>
+        <v>107.5308447661006</v>
       </c>
       <c r="K9" t="n">
-        <v>285.2811551346434</v>
+        <v>285.2811551346431</v>
       </c>
       <c r="L9" t="n">
-        <v>570.6109243310477</v>
+        <v>570.6109243310472</v>
       </c>
       <c r="M9" t="n">
-        <v>922.9341750197528</v>
+        <v>922.934175019752</v>
       </c>
       <c r="N9" t="n">
-        <v>1298.991018699383</v>
+        <v>1298.991018699382</v>
       </c>
       <c r="O9" t="n">
-        <v>1620.789766799717</v>
+        <v>1620.789766799715</v>
       </c>
       <c r="P9" t="n">
-        <v>2123.521887023841</v>
+        <v>2123.521887023837</v>
       </c>
       <c r="Q9" t="n">
-        <v>2441.303465133463</v>
+        <v>2441.303465133459</v>
       </c>
       <c r="R9" t="n">
-        <v>2462.961071657596</v>
+        <v>2462.961071657593</v>
       </c>
       <c r="S9" t="n">
-        <v>2326.421037621225</v>
+        <v>2326.421037621221</v>
       </c>
       <c r="T9" t="n">
-        <v>2132.23686290004</v>
+        <v>2132.236862900037</v>
       </c>
       <c r="U9" t="n">
-        <v>1904.1438608484</v>
+        <v>1904.143860848396</v>
       </c>
       <c r="V9" t="n">
-        <v>1668.991752616657</v>
+        <v>1668.991752616653</v>
       </c>
       <c r="W9" t="n">
-        <v>1414.754395888455</v>
+        <v>1414.754395888452</v>
       </c>
       <c r="X9" t="n">
-        <v>1206.902895682922</v>
+        <v>1206.902895682919</v>
       </c>
       <c r="Y9" t="n">
-        <v>999.1425969179686</v>
+        <v>999.142596917965</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.94628478026667</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="C10" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="D10" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="E10" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="F10" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="G10" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="H10" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="I10" t="n">
-        <v>49.25922143315193</v>
+        <v>49.25922143315185</v>
       </c>
       <c r="J10" t="n">
-        <v>72.16948929449897</v>
+        <v>72.16948929449885</v>
       </c>
       <c r="K10" t="n">
-        <v>239.6549338604743</v>
+        <v>239.6549338604741</v>
       </c>
       <c r="L10" t="n">
-        <v>509.5050742875336</v>
+        <v>509.5050742875333</v>
       </c>
       <c r="M10" t="n">
-        <v>804.4133346807944</v>
+        <v>804.4133346807939</v>
       </c>
       <c r="N10" t="n">
-        <v>1097.743952216129</v>
+        <v>1097.743952216128</v>
       </c>
       <c r="O10" t="n">
         <v>1352.665958931742</v>
@@ -4981,31 +4981,31 @@
         <v>1547.27509258558</v>
       </c>
       <c r="Q10" t="n">
-        <v>1598.577289188416</v>
+        <v>1598.577289188415</v>
       </c>
       <c r="R10" t="n">
-        <v>1494.333432683897</v>
+        <v>1598.577289188415</v>
       </c>
       <c r="S10" t="n">
-        <v>1297.061117781783</v>
+        <v>1401.3049742863</v>
       </c>
       <c r="T10" t="n">
-        <v>1073.924850581563</v>
+        <v>1401.3049742863</v>
       </c>
       <c r="U10" t="n">
-        <v>784.8044987909971</v>
+        <v>1112.184622495734</v>
       </c>
       <c r="V10" t="n">
-        <v>784.8044987909971</v>
+        <v>857.5001342898473</v>
       </c>
       <c r="W10" t="n">
-        <v>495.3873287540364</v>
+        <v>568.0829642528868</v>
       </c>
       <c r="X10" t="n">
-        <v>495.3873287540364</v>
+        <v>340.0934133548694</v>
       </c>
       <c r="Y10" t="n">
-        <v>274.5947496105064</v>
+        <v>230.9076862633916</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5045,22 +5045,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5179,13 +5179,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5258,22 +5258,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5416,16 +5416,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,7 +5783,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5835,7 +5835,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
         <v>898.2659412311323</v>
@@ -6172,13 +6172,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,7 +6309,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319338</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656832</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150038</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942671</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,37 +6634,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,7 +7023,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7175,16 +7175,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,13 +7251,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7351,19 +7351,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,7 +7734,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,34 +7804,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528961</v>
+        <v>74.03418926528931</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>266.4578998364736</v>
+        <v>266.4578998364715</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>200.1768296548007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>249.1946548332748</v>
+        <v>241.1034791810246</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750799</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>257.5159129450327</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1461478.305304643</v>
+        <v>1461478.305304642</v>
       </c>
     </row>
     <row r="5">
@@ -26366,43 +26366,43 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477418</v>
+        <v>84336.10254477433</v>
       </c>
       <c r="D3" t="n">
-        <v>366048.0680133403</v>
+        <v>366048.0680133396</v>
       </c>
       <c r="E3" t="n">
-        <v>531191.5724388075</v>
+        <v>531191.572438808</v>
       </c>
       <c r="F3" t="n">
-        <v>2.493968250307481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854467</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
         <v>19608.4285504062</v>
       </c>
       <c r="L3" t="n">
-        <v>89094.71054326191</v>
+        <v>89094.71054326177</v>
       </c>
       <c r="M3" t="n">
-        <v>138798.6585022449</v>
+        <v>138798.6585022451</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171468.7195588921</v>
+        <v>171468.7195588922</v>
       </c>
       <c r="C4" t="n">
         <v>254806.1641956505</v>
       </c>
       <c r="D4" t="n">
-        <v>152114.912067796</v>
+        <v>152114.9120677962</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
@@ -26433,31 +26433,31 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
+        <v>21597.6673749362</v>
+      </c>
+      <c r="J4" t="n">
         <v>21597.66737493622</v>
       </c>
-      <c r="J4" t="n">
-        <v>21597.66737493623</v>
-      </c>
       <c r="K4" t="n">
+        <v>21597.6673749362</v>
+      </c>
+      <c r="L4" t="n">
         <v>21597.66737493622</v>
       </c>
-      <c r="L4" t="n">
-        <v>21597.66737493628</v>
-      </c>
       <c r="M4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.6673749362</v>
       </c>
       <c r="N4" t="n">
         <v>21597.6673749362</v>
       </c>
       <c r="O4" t="n">
+        <v>21597.66737493622</v>
+      </c>
+      <c r="P4" t="n">
         <v>21597.66737493621</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21597.66737493622</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>90985.2525021855</v>
+        <v>90985.25250218544</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-819811.422491351</v>
+        <v>-820275.7192833757</v>
       </c>
       <c r="C6" t="n">
-        <v>-402190.0699446909</v>
+        <v>-402190.069944691</v>
       </c>
       <c r="D6" t="n">
-        <v>-609148.2325833217</v>
+        <v>-609148.2325833212</v>
       </c>
       <c r="E6" t="n">
-        <v>-645920.9103745573</v>
+        <v>-645955.6482999935</v>
       </c>
       <c r="F6" t="n">
-        <v>-114729.3379357499</v>
+        <v>-114764.0758611856</v>
       </c>
       <c r="G6" t="n">
-        <v>-114729.3379357499</v>
+        <v>-114764.0758611856</v>
       </c>
       <c r="H6" t="n">
-        <v>-114729.3379357498</v>
+        <v>-114764.0758611856</v>
       </c>
       <c r="I6" t="n">
-        <v>-144189.5012224834</v>
+        <v>-144189.5012224833</v>
       </c>
       <c r="J6" t="n">
-        <v>-173826.7279573963</v>
+        <v>-173826.7279573962</v>
       </c>
       <c r="K6" t="n">
         <v>-144370.2117792578</v>
       </c>
       <c r="L6" t="n">
-        <v>-213856.4937721136</v>
+        <v>-213856.4937721134</v>
       </c>
       <c r="M6" t="n">
-        <v>-263560.4417310966</v>
+        <v>-263560.4417310967</v>
       </c>
       <c r="N6" t="n">
         <v>-144189.5012224833</v>
       </c>
       <c r="O6" t="n">
-        <v>-124761.7832288516</v>
+        <v>-124761.7832288517</v>
       </c>
       <c r="P6" t="n">
-        <v>-124761.7832288516</v>
+        <v>-124761.7832288515</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="I2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="J2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203979</v>
-      </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>913.791018944497</v>
+        <v>913.7910189444965</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>615.7402679143991</v>
+        <v>615.7402679143981</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,34 +26917,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J2" t="n">
-        <v>2.56688157319645e-14</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657367</v>
+        <v>65.58507285657379</v>
       </c>
       <c r="D3" t="n">
-        <v>299.7360051750186</v>
+        <v>299.7360051750181</v>
       </c>
       <c r="E3" t="n">
-        <v>454.1844813971768</v>
+        <v>454.1844813971773</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518619</v>
+        <v>76.18829283518633</v>
       </c>
       <c r="D4" t="n">
-        <v>352.0263879128929</v>
+        <v>352.0263879128919</v>
       </c>
       <c r="E4" t="n">
-        <v>556.9680201852493</v>
+        <v>556.9680201852502</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518619</v>
+        <v>76.18829283518633</v>
       </c>
       <c r="L4" t="n">
-        <v>352.0263879128926</v>
+        <v>352.0263879128919</v>
       </c>
       <c r="M4" t="n">
-        <v>556.9680201852495</v>
+        <v>556.9680201852502</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O2" t="n">
-        <v>2.56688157319645e-14</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518619</v>
+        <v>76.18829283518633</v>
       </c>
       <c r="L4" t="n">
-        <v>352.0263879128929</v>
+        <v>352.0263879128919</v>
       </c>
       <c r="M4" t="n">
-        <v>556.9680201852493</v>
+        <v>556.9680201852502</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>163.9031783967832</v>
+        <v>171.9943540490334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.0745931339332</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.360646473772704</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681227</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.3706927183327</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378008</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>196.7025699974787</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.2512337886461</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>297.3641166365624</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>47.36781040884759</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.53091770879328</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81113036005071</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.8872062752397</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>140.8594417817716</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>125.3094651874605</v>
       </c>
       <c r="T8" t="n">
-        <v>62.28501126885072</v>
+        <v>207.0149643965754</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,7 +27935,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>99.37160607512418</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>77.64723264554573</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>21.72437342958207</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9966283849842</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>147.5765558430508</v>
       </c>
       <c r="I10" t="n">
-        <v>105.8960373753173</v>
+        <v>105.8960373753174</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>103.2014179394731</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9049045282173</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>110.4907835315317</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.673531734450236</v>
+        <v>3.673531734450235</v>
       </c>
       <c r="H8" t="n">
-        <v>37.62155687543849</v>
+        <v>37.62155687543847</v>
       </c>
       <c r="I8" t="n">
-        <v>141.6238321923929</v>
+        <v>141.6238321923928</v>
       </c>
       <c r="J8" t="n">
-        <v>311.786414046796</v>
+        <v>311.7864140467959</v>
       </c>
       <c r="K8" t="n">
-        <v>467.2870123660746</v>
+        <v>467.2870123660744</v>
       </c>
       <c r="L8" t="n">
-        <v>579.7108591842562</v>
+        <v>579.7108591842558</v>
       </c>
       <c r="M8" t="n">
-        <v>645.0400291667855</v>
+        <v>645.0400291667852</v>
       </c>
       <c r="N8" t="n">
-        <v>655.4774512072923</v>
+        <v>655.477451207292</v>
       </c>
       <c r="O8" t="n">
-        <v>618.9487700228527</v>
+        <v>618.9487700228524</v>
       </c>
       <c r="P8" t="n">
-        <v>528.2584553286124</v>
+        <v>528.2584553286122</v>
       </c>
       <c r="Q8" t="n">
-        <v>396.7001000886132</v>
+        <v>396.700100088613</v>
       </c>
       <c r="R8" t="n">
-        <v>230.7574878141598</v>
+        <v>230.7574878141597</v>
       </c>
       <c r="S8" t="n">
-        <v>83.71060439878484</v>
+        <v>83.7106043987848</v>
       </c>
       <c r="T8" t="n">
-        <v>16.08088516755592</v>
+        <v>16.08088516755591</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2938825387560188</v>
+        <v>0.2938825387560187</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.965512757729673</v>
+        <v>1.965512757729672</v>
       </c>
       <c r="H9" t="n">
-        <v>18.98271531807342</v>
+        <v>18.98271531807341</v>
       </c>
       <c r="I9" t="n">
-        <v>67.67225942183303</v>
+        <v>67.672259421833</v>
       </c>
       <c r="J9" t="n">
-        <v>185.6978522555039</v>
+        <v>185.6978522555038</v>
       </c>
       <c r="K9" t="n">
-        <v>317.387207023392</v>
+        <v>317.3872070233918</v>
       </c>
       <c r="L9" t="n">
-        <v>426.7662678570503</v>
+        <v>426.76626785705</v>
       </c>
       <c r="M9" t="n">
-        <v>498.0161053247508</v>
+        <v>498.0161053247505</v>
       </c>
       <c r="N9" t="n">
-        <v>511.1971097395257</v>
+        <v>511.1971097395255</v>
       </c>
       <c r="O9" t="n">
-        <v>467.6454849498314</v>
+        <v>467.6454849498311</v>
       </c>
       <c r="P9" t="n">
-        <v>375.3267300264671</v>
+        <v>375.3267300264669</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.8959793901948</v>
+        <v>250.8959793901946</v>
       </c>
       <c r="R9" t="n">
-        <v>122.0342043790406</v>
+        <v>122.0342043790405</v>
       </c>
       <c r="S9" t="n">
-        <v>36.50853740782964</v>
+        <v>36.50853740782962</v>
       </c>
       <c r="T9" t="n">
-        <v>7.922395720848985</v>
+        <v>7.922395720848981</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1293100498506364</v>
+        <v>0.1293100498506363</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.647819870227781</v>
+        <v>1.64781987022778</v>
       </c>
       <c r="H10" t="n">
-        <v>14.65061666438883</v>
+        <v>14.65061666438882</v>
       </c>
       <c r="I10" t="n">
-        <v>49.55443755194093</v>
+        <v>49.5544375519409</v>
       </c>
       <c r="J10" t="n">
         <v>116.5008648251041</v>
       </c>
       <c r="K10" t="n">
-        <v>191.4467085591913</v>
+        <v>191.4467085591912</v>
       </c>
       <c r="L10" t="n">
-        <v>244.9858741609558</v>
+        <v>244.9858741609557</v>
       </c>
       <c r="M10" t="n">
-        <v>258.3032547485239</v>
+        <v>258.3032547485238</v>
       </c>
       <c r="N10" t="n">
-        <v>252.161380686766</v>
+        <v>252.1613806867659</v>
       </c>
       <c r="O10" t="n">
-        <v>232.9118485663778</v>
+        <v>232.9118485663776</v>
       </c>
       <c r="P10" t="n">
-        <v>199.2963232137308</v>
+        <v>199.2963232137307</v>
       </c>
       <c r="Q10" t="n">
         <v>137.982443860619</v>
       </c>
       <c r="R10" t="n">
-        <v>74.0919734376964</v>
+        <v>74.09197343769637</v>
       </c>
       <c r="S10" t="n">
-        <v>28.71700628387869</v>
+        <v>28.71700628387867</v>
       </c>
       <c r="T10" t="n">
-        <v>7.040684900064154</v>
+        <v>7.040684900064151</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08988108383060635</v>
+        <v>0.08988108383060631</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33743,10 +33743,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34454,10 +34454,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175041</v>
+        <v>86.19340501175009</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>130.7405095201098</v>
+        <v>130.7405095201096</v>
       </c>
       <c r="K8" t="n">
-        <v>247.1971613210941</v>
+        <v>247.1971613210938</v>
       </c>
       <c r="L8" t="n">
-        <v>343.9444442142689</v>
+        <v>343.9444442142686</v>
       </c>
       <c r="M8" t="n">
-        <v>414.6937959395128</v>
+        <v>414.6937959395125</v>
       </c>
       <c r="N8" t="n">
-        <v>426.0643876107014</v>
+        <v>426.0643876107011</v>
       </c>
       <c r="O8" t="n">
-        <v>388.850558601166</v>
+        <v>388.8505586011656</v>
       </c>
       <c r="P8" t="n">
-        <v>297.0254595733429</v>
+        <v>297.0254595733426</v>
       </c>
       <c r="Q8" t="n">
-        <v>174.3944102141637</v>
+        <v>174.3944102141635</v>
       </c>
       <c r="R8" t="n">
-        <v>15.17195000002772</v>
+        <v>15.17195000002761</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>58.86022558883721</v>
+        <v>58.8602255888371</v>
       </c>
       <c r="K9" t="n">
-        <v>179.545768049033</v>
+        <v>179.5457680490328</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2118880771761</v>
+        <v>288.2118880771758</v>
       </c>
       <c r="M9" t="n">
-        <v>355.8820714027324</v>
+        <v>355.8820714027322</v>
       </c>
       <c r="N9" t="n">
-        <v>379.8553976561924</v>
+        <v>379.8553976561922</v>
       </c>
       <c r="O9" t="n">
-        <v>325.0492405053869</v>
+        <v>325.0492405053867</v>
       </c>
       <c r="P9" t="n">
-        <v>507.8102224486105</v>
+        <v>507.8102224486082</v>
       </c>
       <c r="Q9" t="n">
-        <v>320.9914930400223</v>
+        <v>320.9914930400222</v>
       </c>
       <c r="R9" t="n">
-        <v>21.87637022639747</v>
+        <v>21.87637022639741</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.14168470843136</v>
+        <v>23.1416847084313</v>
       </c>
       <c r="K10" t="n">
-        <v>169.1772167333084</v>
+        <v>169.1772167333083</v>
       </c>
       <c r="L10" t="n">
-        <v>272.575899421272</v>
+        <v>272.5758994212719</v>
       </c>
       <c r="M10" t="n">
-        <v>297.8871317103645</v>
+        <v>297.8871317103644</v>
       </c>
       <c r="N10" t="n">
-        <v>296.2935530659946</v>
+        <v>296.2935530659945</v>
       </c>
       <c r="O10" t="n">
-        <v>257.4969764804174</v>
+        <v>257.4969764804173</v>
       </c>
       <c r="P10" t="n">
-        <v>196.5748824786243</v>
+        <v>196.5748824786242</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.82040060892466</v>
+        <v>51.82040060892457</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36534,7 +36534,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
